--- a/precos.xlsx
+++ b/precos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\SISTEMAS MCPF-BA\MEUS PROJETOS\NOVO ORÇAMENTO RAPIDO\orca-rapido-zap-main\orca-rapido-zap-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{629279B6-1EDD-4690-8293-D213489DC666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD827C8-FF1C-4BDD-A03F-AB2B050B3141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6018,7 +6018,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6031,6 +6031,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6068,9 +6076,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6377,25 +6388,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I949"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C296" sqref="C296:C299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="9" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="9" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -6417,7 +6429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -6446,7 +6458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -6472,7 +6484,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -6498,7 +6510,7 @@
         <v>471.8091</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6524,7 +6536,7 @@
         <v>419.87509999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -6550,7 +6562,7 @@
         <v>3580.1718999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -6576,7 +6588,7 @@
         <v>1242.96126</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -6602,7 +6614,7 @@
         <v>717.12950999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -6628,7 +6640,7 @@
         <v>286.76600000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -6654,7 +6666,7 @@
         <v>44.708399999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -6680,7 +6692,7 @@
         <v>553.09709999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -6706,7 +6718,7 @@
         <v>553.09709999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -6735,7 +6747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -6761,7 +6773,7 @@
         <v>40.643999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -6787,7 +6799,7 @@
         <v>437.03590000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -6813,7 +6825,7 @@
         <v>437.03590000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -6839,7 +6851,7 @@
         <v>29.63625</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6865,7 +6877,7 @@
         <v>302.7978</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -6894,7 +6906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -6920,7 +6932,7 @@
         <v>302.7978</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -6949,7 +6961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -6975,7 +6987,7 @@
         <v>110.0775</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -7001,7 +7013,7 @@
         <v>1139.3868</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -7027,7 +7039,7 @@
         <v>1139.3868</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -7056,7 +7068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -7082,7 +7094,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -7108,7 +7120,7 @@
         <v>413.214</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -7134,7 +7146,7 @@
         <v>426.762</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -7163,7 +7175,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -7189,7 +7201,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -7215,7 +7227,7 @@
         <v>371.66680000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -7241,7 +7253,7 @@
         <v>371.66680000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -7270,7 +7282,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -7296,7 +7308,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -7322,7 +7334,7 @@
         <v>612.59539999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -7348,7 +7360,7 @@
         <v>612.59539999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -7374,7 +7386,7 @@
         <v>5054.1039799999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -7400,7 +7412,7 @@
         <v>847.5403</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -7426,7 +7438,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -7452,7 +7464,7 @@
         <v>509.40480000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -7478,7 +7490,7 @@
         <v>509.40480000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -7507,7 +7519,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -7533,7 +7545,7 @@
         <v>65.0304</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -7559,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -7585,7 +7597,7 @@
         <v>815.81540000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -7611,7 +7623,7 @@
         <v>815.81540000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -7640,7 +7652,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -7666,7 +7678,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>111</v>
       </c>
@@ -7692,7 +7704,7 @@
         <v>523.17859999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -7718,13 +7730,16 @@
         <v>523.17859999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>115</v>
       </c>
       <c r="B51" t="s">
         <v>116</v>
       </c>
+      <c r="C51">
+        <v>42</v>
+      </c>
       <c r="D51">
         <v>750.2</v>
       </c>
@@ -7741,7 +7756,7 @@
         <v>846.97580000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>117</v>
       </c>
@@ -7770,7 +7785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -7799,7 +7814,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -7825,7 +7840,7 @@
         <v>1587.9385</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -7851,7 +7866,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -7877,7 +7892,7 @@
         <v>520.80769999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -7903,7 +7918,7 @@
         <v>520.80769999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -7932,7 +7947,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -7961,7 +7976,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -7990,7 +8005,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>140</v>
       </c>
@@ -8013,7 +8028,7 @@
         <v>3052.7031000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -8036,7 +8051,7 @@
         <v>1672.6134999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>144</v>
       </c>
@@ -8059,7 +8074,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -8082,7 +8097,7 @@
         <v>365.79599999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -8105,7 +8120,7 @@
         <v>247.92840000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -8134,7 +8149,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -8160,7 +8175,7 @@
         <v>391.19850000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -8186,7 +8201,7 @@
         <v>12.70125</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>157</v>
       </c>
@@ -8212,7 +8227,7 @@
         <v>61.756300000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>159</v>
       </c>
@@ -8238,7 +8253,7 @@
         <v>61.756300000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -8264,7 +8279,7 @@
         <v>232.68690000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>163</v>
       </c>
@@ -8290,7 +8305,7 @@
         <v>928.4896</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -8319,7 +8334,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>168</v>
       </c>
@@ -8345,7 +8360,7 @@
         <v>340.95800000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>170</v>
       </c>
@@ -8371,7 +8386,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -8397,7 +8412,7 @@
         <v>241.04150000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -8423,7 +8438,7 @@
         <v>241.04150000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>176</v>
       </c>
@@ -8449,7 +8464,7 @@
         <v>1039.4703</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>178</v>
       </c>
@@ -8475,7 +8490,7 @@
         <v>2489.3208100000002</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>180</v>
       </c>
@@ -8501,7 +8516,7 @@
         <v>1037.94615</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>182</v>
       </c>
@@ -8527,7 +8542,7 @@
         <v>606.27300000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>184</v>
       </c>
@@ -8553,7 +8568,7 @@
         <v>28.450800000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>186</v>
       </c>
@@ -8579,7 +8594,7 @@
         <v>241.04150000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>188</v>
       </c>
@@ -8605,7 +8620,7 @@
         <v>241.04150000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -8631,7 +8646,7 @@
         <v>4422.0784899999999</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>192</v>
       </c>
@@ -8639,7 +8654,7 @@
         <v>193</v>
       </c>
       <c r="C86">
-        <v>37.04</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>376.8</v>
@@ -8657,7 +8672,7 @@
         <v>425.40719999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>194</v>
       </c>
@@ -8665,7 +8680,7 @@
         <v>195</v>
       </c>
       <c r="C87">
-        <v>37.04</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>645</v>
@@ -8683,7 +8698,7 @@
         <v>728.20500000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>196</v>
       </c>
@@ -8691,7 +8706,7 @@
         <v>197</v>
       </c>
       <c r="C88">
-        <v>37.04</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <v>32.4</v>
@@ -8709,7 +8724,7 @@
         <v>36.579599999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>198</v>
       </c>
@@ -8717,7 +8732,7 @@
         <v>199</v>
       </c>
       <c r="C89">
-        <v>37.04</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>190.7</v>
@@ -8735,7 +8750,7 @@
         <v>215.30029999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>200</v>
       </c>
@@ -8743,7 +8758,7 @@
         <v>201</v>
       </c>
       <c r="C90">
-        <v>37.04</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>190.7</v>
@@ -8761,7 +8776,7 @@
         <v>215.30029999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>202</v>
       </c>
@@ -8787,7 +8802,7 @@
         <v>2278.52522</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>204</v>
       </c>
@@ -8813,7 +8828,7 @@
         <v>595.6604000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>206</v>
       </c>
@@ -8839,7 +8854,7 @@
         <v>354.50599999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>208</v>
       </c>
@@ -8865,7 +8880,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>210</v>
       </c>
@@ -8891,7 +8906,7 @@
         <v>200.96199999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>212</v>
       </c>
@@ -8917,7 +8932,7 @@
         <v>200.96199999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>214</v>
       </c>
@@ -8943,7 +8958,7 @@
         <v>2023.3260600000001</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>216</v>
       </c>
@@ -8969,7 +8984,7 @@
         <v>631.61905000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>218</v>
       </c>
@@ -8995,7 +9010,7 @@
         <v>354.50599999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>220</v>
       </c>
@@ -9021,7 +9036,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>222</v>
       </c>
@@ -9047,7 +9062,7 @@
         <v>204.0103</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>224</v>
       </c>
@@ -9073,7 +9088,7 @@
         <v>217.5583</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -9096,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>228</v>
       </c>
@@ -9122,7 +9137,7 @@
         <v>8658.2784199999987</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>230</v>
       </c>
@@ -9148,7 +9163,7 @@
         <v>2194.7759999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>232</v>
       </c>
@@ -9174,7 +9189,7 @@
         <v>84.674999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>234</v>
       </c>
@@ -9200,7 +9215,7 @@
         <v>560.88720000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>236</v>
       </c>
@@ -9226,7 +9241,7 @@
         <v>560.88720000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>238</v>
       </c>
@@ -9252,7 +9267,7 @@
         <v>12818.80148</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>240</v>
       </c>
@@ -9278,7 +9293,7 @@
         <v>3071.4445000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>242</v>
       </c>
@@ -9304,7 +9319,7 @@
         <v>110.0775</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>244</v>
       </c>
@@ -9330,7 +9345,7 @@
         <v>536.72659999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>246</v>
       </c>
@@ -9356,7 +9371,7 @@
         <v>536.72659999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>248</v>
       </c>
@@ -9364,7 +9379,7 @@
         <v>249</v>
       </c>
       <c r="C114">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D114">
         <v>2332.9899999999998</v>
@@ -9382,7 +9397,7 @@
         <v>2633.94571</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>250</v>
       </c>
@@ -9408,7 +9423,7 @@
         <v>16.2576</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>252</v>
       </c>
@@ -9434,7 +9449,7 @@
         <v>244.0898</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>254</v>
       </c>
@@ -9460,7 +9475,7 @@
         <v>244.0898</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>256</v>
       </c>
@@ -9486,7 +9501,7 @@
         <v>3428.72784</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>258</v>
       </c>
@@ -9512,7 +9527,7 @@
         <v>526.33979999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>260</v>
       </c>
@@ -9538,7 +9553,7 @@
         <v>28.450800000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>262</v>
       </c>
@@ -9564,7 +9579,7 @@
         <v>327.41000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>264</v>
       </c>
@@ -9590,7 +9605,7 @@
         <v>327.41000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>266</v>
       </c>
@@ -9619,7 +9634,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>269</v>
       </c>
@@ -9645,7 +9660,7 @@
         <v>134.57679999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>271</v>
       </c>
@@ -9671,7 +9686,7 @@
         <v>773.92949999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>273</v>
       </c>
@@ -9697,7 +9712,7 @@
         <v>28.450800000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>275</v>
       </c>
@@ -9723,7 +9738,7 @@
         <v>278.29849999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>277</v>
       </c>
@@ -9749,7 +9764,7 @@
         <v>278.29849999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>279</v>
       </c>
@@ -9775,7 +9790,7 @@
         <v>1673.7425000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>281</v>
       </c>
@@ -9801,7 +9816,7 @@
         <v>1200.52215</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>283</v>
       </c>
@@ -9827,7 +9842,7 @@
         <v>434.21339999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>285</v>
       </c>
@@ -9853,7 +9868,7 @@
         <v>434.21339999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>287</v>
       </c>
@@ -9879,7 +9894,7 @@
         <v>161.16475</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>289</v>
       </c>
@@ -9908,7 +9923,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>292</v>
       </c>
@@ -9934,7 +9949,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>294</v>
       </c>
@@ -9963,7 +9978,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>297</v>
       </c>
@@ -9989,7 +10004,7 @@
         <v>2779.0335</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>299</v>
       </c>
@@ -10015,7 +10030,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>301</v>
       </c>
@@ -10041,7 +10056,7 @@
         <v>867.97519999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>303</v>
       </c>
@@ -10067,7 +10082,7 @@
         <v>867.97519999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>305</v>
       </c>
@@ -10093,7 +10108,7 @@
         <v>449.85005000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>307</v>
       </c>
@@ -10119,7 +10134,7 @@
         <v>3161.7645000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>309</v>
       </c>
@@ -10148,7 +10163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>311</v>
       </c>
@@ -10174,7 +10189,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>313</v>
       </c>
@@ -10200,7 +10215,7 @@
         <v>1917.2678000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>315</v>
       </c>
@@ -10226,7 +10241,7 @@
         <v>1917.2678000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>317</v>
       </c>
@@ -10252,7 +10267,7 @@
         <v>7461.0529500000002</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>319</v>
       </c>
@@ -10278,7 +10293,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>321</v>
       </c>
@@ -10304,7 +10319,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>323</v>
       </c>
@@ -10330,7 +10345,7 @@
         <v>649.28790000000004</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>325</v>
       </c>
@@ -10356,7 +10371,7 @@
         <v>649.28790000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>327</v>
       </c>
@@ -10385,7 +10400,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>330</v>
       </c>
@@ -10411,7 +10426,7 @@
         <v>2725.4059999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>332</v>
       </c>
@@ -10437,7 +10452,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>334</v>
       </c>
@@ -10463,7 +10478,7 @@
         <v>564.27420000000006</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>336</v>
       </c>
@@ -10489,7 +10504,7 @@
         <v>564.27420000000006</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>338</v>
       </c>
@@ -10515,7 +10530,7 @@
         <v>8682.7325600000004</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>340</v>
       </c>
@@ -10541,7 +10556,7 @@
         <v>2018.652</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>342</v>
       </c>
@@ -10567,7 +10582,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>344</v>
       </c>
@@ -10593,7 +10608,7 @@
         <v>257.97649999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>346</v>
       </c>
@@ -10619,7 +10634,7 @@
         <v>257.97649999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>348</v>
       </c>
@@ -10642,7 +10657,7 @@
         <v>812.54129999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>350</v>
       </c>
@@ -10671,7 +10686,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>353</v>
       </c>
@@ -10697,7 +10712,7 @@
         <v>4647.5285000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>355</v>
       </c>
@@ -10723,7 +10738,7 @@
         <v>190.51875000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>357</v>
       </c>
@@ -10749,7 +10764,7 @@
         <v>1255.8996</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>359</v>
       </c>
@@ -10775,7 +10790,7 @@
         <v>1255.8996</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>361</v>
       </c>
@@ -10804,7 +10819,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>364</v>
       </c>
@@ -10830,7 +10845,7 @@
         <v>2725.4059999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>366</v>
       </c>
@@ -10856,7 +10871,7 @@
         <v>105.84375</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>368</v>
       </c>
@@ -10882,7 +10897,7 @@
         <v>798.42880000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>370</v>
       </c>
@@ -10908,7 +10923,7 @@
         <v>798.42880000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>372</v>
       </c>
@@ -10937,7 +10952,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>375</v>
       </c>
@@ -10963,7 +10978,7 @@
         <v>2983.3825000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>377</v>
       </c>
@@ -10989,7 +11004,7 @@
         <v>101.61</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>379</v>
       </c>
@@ -11015,7 +11030,7 @@
         <v>536.83949999999993</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>381</v>
       </c>
@@ -11041,7 +11056,7 @@
         <v>536.83949999999993</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>383</v>
       </c>
@@ -11070,7 +11085,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>386</v>
       </c>
@@ -11096,7 +11111,7 @@
         <v>417.05259999999993</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>388</v>
       </c>
@@ -11122,7 +11137,7 @@
         <v>8.1288</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>390</v>
       </c>
@@ -11148,7 +11163,7 @@
         <v>449.00330000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>392</v>
       </c>
@@ -11174,7 +11189,7 @@
         <v>449.00330000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>394</v>
       </c>
@@ -11203,7 +11218,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>397</v>
       </c>
@@ -11229,7 +11244,7 @@
         <v>223.76779999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>399</v>
       </c>
@@ -11255,7 +11270,7 @@
         <v>8.1288</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>401</v>
       </c>
@@ -11281,7 +11296,7 @@
         <v>340.05479999999989</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>403</v>
       </c>
@@ -11307,13 +11322,16 @@
         <v>340.05479999999989</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>405</v>
       </c>
       <c r="B188" t="s">
         <v>406</v>
       </c>
+      <c r="C188">
+        <v>146.30000000000001</v>
+      </c>
       <c r="D188">
         <v>1045.5</v>
       </c>
@@ -11330,7 +11348,7 @@
         <v>1180.3695</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>407</v>
       </c>
@@ -11356,7 +11374,7 @@
         <v>14119.66915</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>409</v>
       </c>
@@ -11382,7 +11400,7 @@
         <v>173.58375000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>411</v>
       </c>
@@ -11408,7 +11426,7 @@
         <v>1180.3695</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>413</v>
       </c>
@@ -11434,7 +11452,7 @@
         <v>9141.5468700000001</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>415</v>
       </c>
@@ -11460,7 +11478,7 @@
         <v>65.0304</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>417</v>
       </c>
@@ -11486,7 +11504,7 @@
         <v>466.6157</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>419</v>
       </c>
@@ -11512,7 +11530,7 @@
         <v>466.6157</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>421</v>
       </c>
@@ -11538,7 +11556,7 @@
         <v>15897.742539999999</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>423</v>
       </c>
@@ -11564,7 +11582,7 @@
         <v>84.674999999999997</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>425</v>
       </c>
@@ -11590,7 +11608,7 @@
         <v>623.54669999999987</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>427</v>
       </c>
@@ -11616,7 +11634,7 @@
         <v>616.77269999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>429</v>
       </c>
@@ -11642,7 +11660,7 @@
         <v>30698.60513</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>431</v>
       </c>
@@ -11668,7 +11686,7 @@
         <v>211.34880000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>433</v>
       </c>
@@ -11694,7 +11712,7 @@
         <v>1499.0862</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>435</v>
       </c>
@@ -11720,7 +11738,7 @@
         <v>1499.0862</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>437</v>
       </c>
@@ -11746,7 +11764,7 @@
         <v>19332.36376</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>439</v>
       </c>
@@ -11772,7 +11790,7 @@
         <v>127.0125</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>441</v>
       </c>
@@ -11798,7 +11816,7 @@
         <v>977.9398000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>443</v>
       </c>
@@ -11824,7 +11842,7 @@
         <v>977.9398000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>445</v>
       </c>
@@ -11850,7 +11868,7 @@
         <v>14005.459510000001</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>447</v>
       </c>
@@ -11876,7 +11894,7 @@
         <v>101.61</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>449</v>
       </c>
@@ -11902,7 +11920,7 @@
         <v>81.852499999999992</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>451</v>
       </c>
@@ -11928,7 +11946,7 @@
         <v>814.68640000000005</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>453</v>
       </c>
@@ -11954,7 +11972,7 @@
         <v>814.68640000000005</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>455</v>
       </c>
@@ -11980,7 +11998,7 @@
         <v>8215.7894500000002</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>457</v>
       </c>
@@ -12006,7 +12024,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>459</v>
       </c>
@@ -12032,7 +12050,7 @@
         <v>570.37080000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>461</v>
       </c>
@@ -12058,7 +12076,7 @@
         <v>570.37080000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>463</v>
       </c>
@@ -12087,7 +12105,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>466</v>
       </c>
@@ -12113,7 +12131,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>468</v>
       </c>
@@ -12139,7 +12157,7 @@
         <v>807.12209999999993</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>470</v>
       </c>
@@ -12165,7 +12183,7 @@
         <v>807.12209999999993</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>472</v>
       </c>
@@ -12194,7 +12212,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>475</v>
       </c>
@@ -12220,7 +12238,7 @@
         <v>127.0125</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>477</v>
       </c>
@@ -12246,7 +12264,7 @@
         <v>425.97170000000011</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>479</v>
       </c>
@@ -12272,7 +12290,7 @@
         <v>425.97170000000011</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>481</v>
       </c>
@@ -12298,7 +12316,7 @@
         <v>8969.3405000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>483</v>
       </c>
@@ -12324,7 +12342,7 @@
         <v>56.901600000000002</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>485</v>
       </c>
@@ -12350,7 +12368,7 @@
         <v>510.8725</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>487</v>
       </c>
@@ -12376,7 +12394,7 @@
         <v>510.8725</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>489</v>
       </c>
@@ -12402,7 +12420,7 @@
         <v>16369.50648</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>491</v>
       </c>
@@ -12428,7 +12446,7 @@
         <v>4710.2444500000001</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>493</v>
       </c>
@@ -12454,7 +12472,7 @@
         <v>110.0775</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>495</v>
       </c>
@@ -12480,7 +12498,7 @@
         <v>1358.7515000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>497</v>
       </c>
@@ -12506,7 +12524,7 @@
         <v>1358.7515000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>499</v>
       </c>
@@ -12532,7 +12550,7 @@
         <v>2234.00875</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>501</v>
       </c>
@@ -12561,7 +12579,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>504</v>
       </c>
@@ -12587,7 +12605,7 @@
         <v>207.45375000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>506</v>
       </c>
@@ -12613,7 +12631,7 @@
         <v>1886.8977</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>508</v>
       </c>
@@ -12639,7 +12657,7 @@
         <v>1886.8977</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>510</v>
       </c>
@@ -12665,7 +12683,7 @@
         <v>105.67440000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>512</v>
       </c>
@@ -12691,7 +12709,7 @@
         <v>15869.50625</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>514</v>
       </c>
@@ -12717,7 +12735,7 @@
         <v>675.02909999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>516</v>
       </c>
@@ -12743,7 +12761,7 @@
         <v>675.02909999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>518</v>
       </c>
@@ -12772,7 +12790,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>521</v>
       </c>
@@ -12798,7 +12816,7 @@
         <v>28.450800000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>523</v>
       </c>
@@ -12824,7 +12842,7 @@
         <v>240.477</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>525</v>
       </c>
@@ -12850,7 +12868,7 @@
         <v>240.477</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>527</v>
       </c>
@@ -12879,7 +12897,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>530</v>
       </c>
@@ -12905,7 +12923,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>532</v>
       </c>
@@ -12931,7 +12949,7 @@
         <v>1156.4347</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>534</v>
       </c>
@@ -12957,7 +12975,7 @@
         <v>1156.4347</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>536</v>
       </c>
@@ -12986,7 +13004,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>539</v>
       </c>
@@ -13012,7 +13030,7 @@
         <v>614.85339999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>541</v>
       </c>
@@ -13038,7 +13056,7 @@
         <v>3005.3980000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>543</v>
       </c>
@@ -13064,7 +13082,7 @@
         <v>131.24625</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>545</v>
       </c>
@@ -13090,7 +13108,7 @@
         <v>1267.9799</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>547</v>
       </c>
@@ -13116,7 +13134,7 @@
         <v>1267.9799</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>549</v>
       </c>
@@ -13145,7 +13163,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>552</v>
       </c>
@@ -13171,7 +13189,7 @@
         <v>146.3184</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>554</v>
       </c>
@@ -13197,7 +13215,7 @@
         <v>101.61</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>556</v>
       </c>
@@ -13223,7 +13241,7 @@
         <v>1206.1107</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>558</v>
       </c>
@@ -13249,7 +13267,7 @@
         <v>1206.1107</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>560</v>
       </c>
@@ -13278,7 +13296,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>563</v>
       </c>
@@ -13304,7 +13322,7 @@
         <v>739.89014999999995</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>565</v>
       </c>
@@ -13330,7 +13348,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>567</v>
       </c>
@@ -13356,7 +13374,7 @@
         <v>333.84530000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>569</v>
       </c>
@@ -13382,7 +13400,7 @@
         <v>333.84530000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>571</v>
       </c>
@@ -13411,7 +13429,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>574</v>
       </c>
@@ -13437,7 +13455,7 @@
         <v>80.441249999999997</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>576</v>
       </c>
@@ -13463,7 +13481,7 @@
         <v>586.17679999999996</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>578</v>
       </c>
@@ -13489,7 +13507,7 @@
         <v>586.17679999999996</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>580</v>
       </c>
@@ -13515,7 +13533,7 @@
         <v>224.4452</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>582</v>
       </c>
@@ -13541,7 +13559,7 @@
         <v>20587.269840000001</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>584</v>
       </c>
@@ -13567,7 +13585,7 @@
         <v>122.77875</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>586</v>
       </c>
@@ -13593,7 +13611,7 @@
         <v>1142.6609000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>588</v>
       </c>
@@ -13619,7 +13637,7 @@
         <v>1142.6609000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>590</v>
       </c>
@@ -13648,7 +13666,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>593</v>
       </c>
@@ -13674,7 +13692,7 @@
         <v>88.908749999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>595</v>
       </c>
@@ -13700,7 +13718,7 @@
         <v>64.917500000000004</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>597</v>
       </c>
@@ -13726,7 +13744,7 @@
         <v>594.87009999999987</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>599</v>
       </c>
@@ -13752,7 +13770,7 @@
         <v>594.87009999999987</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>601</v>
       </c>
@@ -13778,7 +13796,7 @@
         <v>1146.7253000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>603</v>
       </c>
@@ -13804,7 +13822,7 @@
         <v>265.20209999999997</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>605</v>
       </c>
@@ -13830,7 +13848,7 @@
         <v>1142.548</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>607</v>
       </c>
@@ -13859,7 +13877,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>610</v>
       </c>
@@ -13885,7 +13903,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>612</v>
       </c>
@@ -13911,7 +13929,7 @@
         <v>313.07170000000002</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>614</v>
       </c>
@@ -13937,7 +13955,7 @@
         <v>313.07170000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>616</v>
       </c>
@@ -13966,7 +13984,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>619</v>
       </c>
@@ -13992,7 +14010,7 @@
         <v>920.07855000000006</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>621</v>
       </c>
@@ -14018,7 +14036,7 @@
         <v>219.19534999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>623</v>
       </c>
@@ -14044,7 +14062,7 @@
         <v>1414.6369999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>625</v>
       </c>
@@ -14070,7 +14088,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>627</v>
       </c>
@@ -14096,7 +14114,7 @@
         <v>264.97629999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>629</v>
       </c>
@@ -14122,7 +14140,7 @@
         <v>264.97629999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>631</v>
       </c>
@@ -14151,7 +14169,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>633</v>
       </c>
@@ -14159,7 +14177,7 @@
         <v>634</v>
       </c>
       <c r="C296">
-        <v>90.95</v>
+        <v>1</v>
       </c>
       <c r="D296">
         <v>2083.25</v>
@@ -14177,7 +14195,7 @@
         <v>2351.9892500000001</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>635</v>
       </c>
@@ -14185,7 +14203,7 @@
         <v>636</v>
       </c>
       <c r="C297">
-        <v>90.95</v>
+        <v>1</v>
       </c>
       <c r="D297">
         <v>41.25</v>
@@ -14203,7 +14221,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>637</v>
       </c>
@@ -14211,7 +14229,7 @@
         <v>638</v>
       </c>
       <c r="C298">
-        <v>90.95</v>
+        <v>1</v>
       </c>
       <c r="D298">
         <v>311.10000000000002</v>
@@ -14229,7 +14247,7 @@
         <v>351.23190000000011</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>639</v>
       </c>
@@ -14237,7 +14255,7 @@
         <v>640</v>
       </c>
       <c r="C299">
-        <v>90.95</v>
+        <v>1</v>
       </c>
       <c r="D299">
         <v>306</v>
@@ -14255,7 +14273,7 @@
         <v>345.47399999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>641</v>
       </c>
@@ -14284,7 +14302,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>643</v>
       </c>
@@ -14310,7 +14328,7 @@
         <v>933.96525000000008</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>645</v>
       </c>
@@ -14336,7 +14354,7 @@
         <v>265.20209999999997</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>647</v>
       </c>
@@ -14362,7 +14380,7 @@
         <v>1448.5070000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>649</v>
       </c>
@@ -14388,7 +14406,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>651</v>
       </c>
@@ -14414,7 +14432,7 @@
         <v>361.28</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>653</v>
       </c>
@@ -14440,7 +14458,7 @@
         <v>361.28</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>655</v>
       </c>
@@ -14469,7 +14487,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>658</v>
       </c>
@@ -14495,7 +14513,7 @@
         <v>1081.2433000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>660</v>
       </c>
@@ -14521,7 +14539,7 @@
         <v>282.81450000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>662</v>
       </c>
@@ -14547,7 +14565,7 @@
         <v>1346.8969999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>664</v>
       </c>
@@ -14573,7 +14591,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>666</v>
       </c>
@@ -14599,7 +14617,7 @@
         <v>340.8451</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>668</v>
       </c>
@@ -14625,7 +14643,7 @@
         <v>340.8451</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>670</v>
       </c>
@@ -14651,7 +14669,7 @@
         <v>3314.8456099999999</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>672</v>
       </c>
@@ -14677,7 +14695,7 @@
         <v>840.08889999999997</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>674</v>
       </c>
@@ -14703,7 +14721,7 @@
         <v>232.2353</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>676</v>
       </c>
@@ -14729,7 +14747,7 @@
         <v>1095.1300000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>678</v>
       </c>
@@ -14755,7 +14773,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>680</v>
       </c>
@@ -14781,7 +14799,7 @@
         <v>282.13709999999998</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>682</v>
       </c>
@@ -14807,7 +14825,7 @@
         <v>282.13709999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>684</v>
       </c>
@@ -14836,7 +14854,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>687</v>
       </c>
@@ -14862,7 +14880,7 @@
         <v>1114.7181499999999</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>689</v>
       </c>
@@ -14888,7 +14906,7 @@
         <v>134.06874999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>691</v>
       </c>
@@ -14914,7 +14932,7 @@
         <v>1414.6369999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>693</v>
       </c>
@@ -14940,7 +14958,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>695</v>
       </c>
@@ -14966,7 +14984,7 @@
         <v>261.7022</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>697</v>
       </c>
@@ -14992,7 +15010,7 @@
         <v>261.7022</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>699</v>
       </c>
@@ -15018,7 +15036,7 @@
         <v>1108.84735</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>701</v>
       </c>
@@ -15044,7 +15062,7 @@
         <v>389.78724999999997</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>703</v>
       </c>
@@ -15070,7 +15088,7 @@
         <v>1632.5340000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>705</v>
       </c>
@@ -15099,7 +15117,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>708</v>
       </c>
@@ -15125,7 +15143,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>710</v>
       </c>
@@ -15151,7 +15169,7 @@
         <v>457.69659999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>712</v>
       </c>
@@ -15177,7 +15195,7 @@
         <v>457.69659999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>714</v>
       </c>
@@ -15206,7 +15224,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>717</v>
       </c>
@@ -15232,7 +15250,7 @@
         <v>1584.5515</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>719</v>
       </c>
@@ -15258,7 +15276,7 @@
         <v>525.49304999999993</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>721</v>
       </c>
@@ -15284,7 +15302,7 @@
         <v>2067.1990000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>723</v>
       </c>
@@ -15310,7 +15328,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>725</v>
       </c>
@@ -15336,7 +15354,7 @@
         <v>543.61349999999993</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>727</v>
       </c>
@@ -15362,7 +15380,7 @@
         <v>543.61349999999993</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>729</v>
       </c>
@@ -15391,7 +15409,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>732</v>
       </c>
@@ -15417,7 +15435,7 @@
         <v>1270.40725</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>734</v>
       </c>
@@ -15443,7 +15461,7 @@
         <v>2326.8690000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>736</v>
       </c>
@@ -15469,7 +15487,7 @@
         <v>80.441249999999997</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>738</v>
       </c>
@@ -15495,7 +15513,7 @@
         <v>55.321000000000012</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>740</v>
       </c>
@@ -15521,7 +15539,7 @@
         <v>571.49979999999994</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>742</v>
       </c>
@@ -15547,7 +15565,7 @@
         <v>571.49979999999994</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>744</v>
       </c>
@@ -15573,7 +15591,7 @@
         <v>4086.8332300000002</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>746</v>
       </c>
@@ -15599,7 +15617,7 @@
         <v>646.97344999999996</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>748</v>
       </c>
@@ -15625,7 +15643,7 @@
         <v>152.35855000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>750</v>
       </c>
@@ -15651,7 +15669,7 @@
         <v>1354.8</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>752</v>
       </c>
@@ -15674,7 +15692,7 @@
         <v>202.99420000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>754</v>
       </c>
@@ -15700,7 +15718,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>756</v>
       </c>
@@ -15726,7 +15744,7 @@
         <v>202.99420000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>758</v>
       </c>
@@ -15755,7 +15773,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>761</v>
       </c>
@@ -15763,7 +15781,7 @@
         <v>762</v>
       </c>
       <c r="C357">
-        <v>31.21</v>
+        <v>2.1</v>
       </c>
       <c r="D357">
         <v>206.3</v>
@@ -15781,7 +15799,7 @@
         <v>232.9127</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>763</v>
       </c>
@@ -15789,7 +15807,7 @@
         <v>764</v>
       </c>
       <c r="C358">
-        <v>31.21</v>
+        <v>2.1</v>
       </c>
       <c r="D358">
         <v>1242</v>
@@ -15807,7 +15825,7 @@
         <v>1402.2180000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>765</v>
       </c>
@@ -15815,7 +15833,7 @@
         <v>766</v>
       </c>
       <c r="C359">
-        <v>31.21</v>
+        <v>2.1</v>
       </c>
       <c r="D359">
         <v>37.5</v>
@@ -15833,7 +15851,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>767</v>
       </c>
@@ -15841,7 +15859,7 @@
         <v>768</v>
       </c>
       <c r="C360">
-        <v>31.21</v>
+        <v>2.1</v>
       </c>
       <c r="D360">
         <v>289.5</v>
@@ -15859,7 +15877,7 @@
         <v>326.84550000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>769</v>
       </c>
@@ -15867,7 +15885,7 @@
         <v>770</v>
       </c>
       <c r="C361">
-        <v>31.21</v>
+        <v>2.1</v>
       </c>
       <c r="D361">
         <v>289.5</v>
@@ -15885,7 +15903,7 @@
         <v>326.84550000000002</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>771</v>
       </c>
@@ -15911,7 +15929,7 @@
         <v>6255.2696599999999</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>773</v>
       </c>
@@ -15937,7 +15955,7 @@
         <v>1756.8933500000001</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>775</v>
       </c>
@@ -15963,7 +15981,7 @@
         <v>512.17084999999997</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>777</v>
       </c>
@@ -15989,7 +16007,7 @@
         <v>1755.595</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>779</v>
       </c>
@@ -16015,7 +16033,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>781</v>
       </c>
@@ -16041,7 +16059,7 @@
         <v>629.75619999999992</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>783</v>
       </c>
@@ -16067,7 +16085,7 @@
         <v>629.75619999999992</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>785</v>
       </c>
@@ -16093,7 +16111,7 @@
         <v>4794.8855800000001</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>787</v>
       </c>
@@ -16119,7 +16137,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>789</v>
       </c>
@@ -16145,7 +16163,7 @@
         <v>385.21480000000003</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>791</v>
       </c>
@@ -16171,7 +16189,7 @@
         <v>385.21480000000003</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>793</v>
       </c>
@@ -16197,7 +16215,7 @@
         <v>10749.58157</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>795</v>
       </c>
@@ -16223,7 +16241,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>797</v>
       </c>
@@ -16249,7 +16267,7 @@
         <v>494.55844999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>799</v>
       </c>
@@ -16275,7 +16293,7 @@
         <v>807.79950000000008</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>801</v>
       </c>
@@ -16301,7 +16319,7 @@
         <v>7889.3165200000003</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>803</v>
       </c>
@@ -16327,7 +16345,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>805</v>
       </c>
@@ -16353,7 +16371,7 @@
         <v>757.22030000000007</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>807</v>
       </c>
@@ -16379,7 +16397,7 @@
         <v>757.22030000000007</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>809</v>
       </c>
@@ -16405,7 +16423,7 @@
         <v>10233.131810000001</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>811</v>
       </c>
@@ -16431,7 +16449,7 @@
         <v>265.87950000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>813</v>
       </c>
@@ -16457,7 +16475,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>815</v>
       </c>
@@ -16483,7 +16501,7 @@
         <v>702.01219999999989</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>817</v>
       </c>
@@ -16509,7 +16527,7 @@
         <v>702.01219999999989</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>819</v>
       </c>
@@ -16535,7 +16553,7 @@
         <v>3377.2567300000001</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>821</v>
       </c>
@@ -16561,7 +16579,7 @@
         <v>152.1892</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>823</v>
       </c>
@@ -16587,7 +16605,7 @@
         <v>898.68400000000008</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>825</v>
       </c>
@@ -16613,7 +16631,7 @@
         <v>32.5152</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>827</v>
       </c>
@@ -16639,7 +16657,7 @@
         <v>309.91050000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>829</v>
       </c>
@@ -16665,7 +16683,7 @@
         <v>309.91050000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>831</v>
       </c>
@@ -16694,7 +16712,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>834</v>
       </c>
@@ -16702,7 +16720,7 @@
         <v>835</v>
       </c>
       <c r="C393">
-        <v>52.5</v>
+        <v>2</v>
       </c>
       <c r="D393">
         <v>676.25</v>
@@ -16720,7 +16738,7 @@
         <v>763.48625000000004</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>836</v>
       </c>
@@ -16728,7 +16746,7 @@
         <v>837</v>
       </c>
       <c r="C394">
-        <v>52.5</v>
+        <v>2</v>
       </c>
       <c r="D394">
         <v>376.45</v>
@@ -16746,7 +16764,7 @@
         <v>425.01204999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>838</v>
       </c>
@@ -16754,7 +16772,7 @@
         <v>839</v>
       </c>
       <c r="C395">
-        <v>52.5</v>
+        <v>2</v>
       </c>
       <c r="D395">
         <v>1241</v>
@@ -16772,7 +16790,7 @@
         <v>1401.0889999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>840</v>
       </c>
@@ -16780,7 +16798,7 @@
         <v>841</v>
       </c>
       <c r="C396">
-        <v>52.5</v>
+        <v>2</v>
       </c>
       <c r="D396">
         <v>39.6</v>
@@ -16798,7 +16816,7 @@
         <v>44.708399999999997</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>842</v>
       </c>
@@ -16806,7 +16824,7 @@
         <v>843</v>
       </c>
       <c r="C397">
-        <v>52.5</v>
+        <v>2</v>
       </c>
       <c r="D397">
         <v>405.3</v>
@@ -16824,7 +16842,7 @@
         <v>457.58370000000002</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>844</v>
       </c>
@@ -16832,7 +16850,7 @@
         <v>845</v>
       </c>
       <c r="C398">
-        <v>52.5</v>
+        <v>2</v>
       </c>
       <c r="D398">
         <v>405.3</v>
@@ -16850,7 +16868,7 @@
         <v>457.58370000000002</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>846</v>
       </c>
@@ -16879,7 +16897,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>849</v>
       </c>
@@ -16905,7 +16923,7 @@
         <v>1887.9702500000001</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>851</v>
       </c>
@@ -16931,7 +16949,7 @@
         <v>372.17484999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>853</v>
       </c>
@@ -16957,7 +16975,7 @@
         <v>2055.9090000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>855</v>
       </c>
@@ -16983,7 +17001,7 @@
         <v>80.441249999999997</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>857</v>
       </c>
@@ -17009,7 +17027,7 @@
         <v>632.91739999999993</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>859</v>
       </c>
@@ -17035,7 +17053,7 @@
         <v>632.91739999999993</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>861</v>
       </c>
@@ -17064,7 +17082,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>864</v>
       </c>
@@ -17090,7 +17108,7 @@
         <v>1284.6891000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>866</v>
       </c>
@@ -17116,7 +17134,7 @@
         <v>232.2353</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>868</v>
       </c>
@@ -17142,7 +17160,7 @@
         <v>1801.884</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>870</v>
       </c>
@@ -17168,7 +17186,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>872</v>
       </c>
@@ -17194,7 +17212,7 @@
         <v>443.47120000000012</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>874</v>
       </c>
@@ -17220,7 +17238,7 @@
         <v>443.47120000000012</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>876</v>
       </c>
@@ -17246,7 +17264,7 @@
         <v>1817.8593499999999</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>878</v>
       </c>
@@ -17272,7 +17290,7 @@
         <v>335.65170000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>880</v>
       </c>
@@ -17298,7 +17316,7 @@
         <v>1537.6980000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>882</v>
       </c>
@@ -17327,7 +17345,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>885</v>
       </c>
@@ -17353,7 +17371,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>887</v>
       </c>
@@ -17379,7 +17397,7 @@
         <v>519.67869999999994</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>889</v>
       </c>
@@ -17405,7 +17423,7 @@
         <v>519.67869999999994</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>891</v>
       </c>
@@ -17434,7 +17452,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>894</v>
       </c>
@@ -17460,7 +17478,7 @@
         <v>1994.0398</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>896</v>
       </c>
@@ -17486,7 +17504,7 @@
         <v>2692.665</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>898</v>
       </c>
@@ -17512,7 +17530,7 @@
         <v>84.674999999999997</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>900</v>
       </c>
@@ -17538,7 +17556,7 @@
         <v>275.476</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>902</v>
       </c>
@@ -17564,7 +17582,7 @@
         <v>275.476</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>904</v>
       </c>
@@ -17593,7 +17611,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>907</v>
       </c>
@@ -17619,7 +17637,7 @@
         <v>2908.1911</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>909</v>
       </c>
@@ -17645,7 +17663,7 @@
         <v>539.88779999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>911</v>
       </c>
@@ -17671,7 +17689,7 @@
         <v>1865.1079999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>913</v>
       </c>
@@ -17697,7 +17715,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>915</v>
       </c>
@@ -17723,7 +17741,7 @@
         <v>789.17099999999994</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>917</v>
       </c>
@@ -17749,7 +17767,7 @@
         <v>789.17099999999994</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>919</v>
       </c>
@@ -17775,7 +17793,7 @@
         <v>1506.4811500000001</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>921</v>
       </c>
@@ -17801,7 +17819,7 @@
         <v>164.38239999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>923</v>
       </c>
@@ -17827,7 +17845,7 @@
         <v>1517.376</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>925</v>
       </c>
@@ -17856,7 +17874,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>928</v>
       </c>
@@ -17882,7 +17900,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>930</v>
       </c>
@@ -17908,7 +17926,7 @@
         <v>557.50020000000006</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>932</v>
       </c>
@@ -17934,7 +17952,7 @@
         <v>557.50020000000006</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>934</v>
       </c>
@@ -17960,7 +17978,7 @@
         <v>6283.7994900000012</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>936</v>
       </c>
@@ -17986,7 +18004,7 @@
         <v>1642.41275</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>938</v>
       </c>
@@ -18012,7 +18030,7 @@
         <v>350.32870000000003</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>940</v>
       </c>
@@ -18038,7 +18056,7 @@
         <v>1687.855</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>942</v>
       </c>
@@ -18064,7 +18082,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>944</v>
       </c>
@@ -18090,7 +18108,7 @@
         <v>622.86930000000007</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>946</v>
       </c>
@@ -18116,7 +18134,7 @@
         <v>622.86930000000007</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>948</v>
       </c>
@@ -18142,7 +18160,7 @@
         <v>483.72005000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>950</v>
       </c>
@@ -18168,7 +18186,7 @@
         <v>2203.808</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>952</v>
       </c>
@@ -18197,7 +18215,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>955</v>
       </c>
@@ -18223,7 +18241,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>957</v>
       </c>
@@ -18249,7 +18267,7 @@
         <v>557.50020000000006</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>959</v>
       </c>
@@ -18275,7 +18293,7 @@
         <v>557.50020000000006</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>961</v>
       </c>
@@ -18304,7 +18322,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>964</v>
       </c>
@@ -18330,7 +18348,7 @@
         <v>1683.1132</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>966</v>
       </c>
@@ -18356,7 +18374,7 @@
         <v>444.93889999999999</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>968</v>
       </c>
@@ -18382,7 +18400,7 @@
         <v>2312.192</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>970</v>
       </c>
@@ -18408,7 +18426,7 @@
         <v>73.159199999999998</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>972</v>
       </c>
@@ -18434,7 +18452,7 @@
         <v>612.48249999999996</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>974</v>
       </c>
@@ -18460,7 +18478,7 @@
         <v>612.48249999999996</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>976</v>
       </c>
@@ -18468,7 +18486,7 @@
         <v>977</v>
       </c>
       <c r="C460">
-        <v>110.58</v>
+        <v>3</v>
       </c>
       <c r="D460">
         <v>2026.7</v>
@@ -18486,7 +18504,7 @@
         <v>2288.1442999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>978</v>
       </c>
@@ -18494,7 +18512,7 @@
         <v>979</v>
       </c>
       <c r="C461">
-        <v>110.58</v>
+        <v>3</v>
       </c>
       <c r="D461">
         <v>575.79999999999995</v>
@@ -18512,7 +18530,7 @@
         <v>650.07819999999992</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>980</v>
       </c>
@@ -18520,7 +18538,7 @@
         <v>981</v>
       </c>
       <c r="C462">
-        <v>110.58</v>
+        <v>3</v>
       </c>
       <c r="D462">
         <v>1928</v>
@@ -18538,7 +18556,7 @@
         <v>2176.712</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>982</v>
       </c>
@@ -18546,7 +18564,7 @@
         <v>983</v>
       </c>
       <c r="C463">
-        <v>110.58</v>
+        <v>110</v>
       </c>
       <c r="D463">
         <v>6805.38</v>
@@ -18567,7 +18585,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>985</v>
       </c>
@@ -18575,7 +18593,7 @@
         <v>986</v>
       </c>
       <c r="C464">
-        <v>110.58</v>
+        <v>3</v>
       </c>
       <c r="D464">
         <v>67.5</v>
@@ -18593,7 +18611,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>987</v>
       </c>
@@ -18601,7 +18619,7 @@
         <v>988</v>
       </c>
       <c r="C465">
-        <v>110.58</v>
+        <v>3</v>
       </c>
       <c r="D465">
         <v>731.6</v>
@@ -18619,7 +18637,7 @@
         <v>825.97640000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>989</v>
       </c>
@@ -18627,7 +18645,7 @@
         <v>990</v>
       </c>
       <c r="C466">
-        <v>110.58</v>
+        <v>3</v>
       </c>
       <c r="D466">
         <v>731.6</v>
@@ -18645,7 +18663,7 @@
         <v>825.97640000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>991</v>
       </c>
@@ -18671,7 +18689,7 @@
         <v>9708.0339100000019</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>993</v>
       </c>
@@ -18697,7 +18715,7 @@
         <v>677.85159999999996</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>995</v>
       </c>
@@ -18723,7 +18741,7 @@
         <v>2041.232</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>997</v>
       </c>
@@ -18749,7 +18767,7 @@
         <v>73.159199999999998</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>999</v>
       </c>
@@ -18775,7 +18793,7 @@
         <v>898.34530000000007</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1001</v>
       </c>
@@ -18801,7 +18819,7 @@
         <v>898.34530000000007</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1003</v>
       </c>
@@ -18830,7 +18848,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1006</v>
       </c>
@@ -18856,7 +18874,7 @@
         <v>301.10430000000002</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1008</v>
       </c>
@@ -18882,7 +18900,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1010</v>
       </c>
@@ -18908,7 +18926,7 @@
         <v>584.70910000000003</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1012</v>
       </c>
@@ -18934,7 +18952,7 @@
         <v>584.70910000000003</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>1014</v>
       </c>
@@ -18963,7 +18981,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>1017</v>
       </c>
@@ -18989,7 +19007,7 @@
         <v>1577.83395</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1019</v>
       </c>
@@ -19015,7 +19033,7 @@
         <v>425.01204999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1021</v>
       </c>
@@ -19041,7 +19059,7 @@
         <v>2190.2600000000002</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1023</v>
       </c>
@@ -19067,7 +19085,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>1025</v>
       </c>
@@ -19093,7 +19111,7 @@
         <v>615.98239999999998</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1027</v>
       </c>
@@ -19119,7 +19137,7 @@
         <v>615.98239999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>1029</v>
       </c>
@@ -19145,7 +19163,7 @@
         <v>1695.9273499999999</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>1031</v>
       </c>
@@ -19171,7 +19189,7 @@
         <v>1166.20055</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>1033</v>
       </c>
@@ -19197,7 +19215,7 @@
         <v>2156.39</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>1035</v>
       </c>
@@ -19226,7 +19244,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1038</v>
       </c>
@@ -19252,7 +19270,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>1040</v>
       </c>
@@ -19278,7 +19296,7 @@
         <v>564.27420000000006</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>1042</v>
       </c>
@@ -19304,7 +19322,7 @@
         <v>564.27420000000006</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>1044</v>
       </c>
@@ -19333,7 +19351,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>1047</v>
       </c>
@@ -19359,7 +19377,7 @@
         <v>7738.3917999999994</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>1049</v>
       </c>
@@ -19385,7 +19403,7 @@
         <v>939.10219999999993</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>1051</v>
       </c>
@@ -19411,7 +19429,7 @@
         <v>7527.0429999999997</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>1053</v>
       </c>
@@ -19437,7 +19455,7 @@
         <v>262.49250000000001</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>1055</v>
       </c>
@@ -19463,7 +19481,7 @@
         <v>2141.1484999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>1057</v>
       </c>
@@ -19489,7 +19507,7 @@
         <v>2141.1484999999998</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>1059</v>
       </c>
@@ -19515,7 +19533,7 @@
         <v>9950.36247</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>1061</v>
       </c>
@@ -19541,7 +19559,7 @@
         <v>110.0775</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1063</v>
       </c>
@@ -19567,7 +19585,7 @@
         <v>557.83890000000008</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1065</v>
       </c>
@@ -19593,7 +19611,7 @@
         <v>557.83890000000008</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>1067</v>
       </c>
@@ -19619,7 +19637,7 @@
         <v>2096.4965499999998</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1069</v>
       </c>
@@ -19645,7 +19663,7 @@
         <v>1842.528</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1071</v>
       </c>
@@ -19674,7 +19692,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1074</v>
       </c>
@@ -19700,7 +19718,7 @@
         <v>56.901600000000002</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1076</v>
       </c>
@@ -19726,7 +19744,7 @@
         <v>358.11880000000002</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1078</v>
       </c>
@@ -19752,7 +19770,7 @@
         <v>358.11880000000002</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1080</v>
       </c>
@@ -19778,7 +19796,7 @@
         <v>1337.3005000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>1082</v>
       </c>
@@ -19804,7 +19822,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>1084</v>
       </c>
@@ -19830,7 +19848,7 @@
         <v>296.13670000000002</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1086</v>
       </c>
@@ -19856,7 +19874,7 @@
         <v>296.13670000000002</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1088</v>
       </c>
@@ -19885,7 +19903,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1091</v>
       </c>
@@ -19911,7 +19929,7 @@
         <v>3065.4043499999998</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1093</v>
       </c>
@@ -19937,7 +19955,7 @@
         <v>350.66739999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1095</v>
       </c>
@@ -19963,7 +19981,7 @@
         <v>1993.8140000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1097</v>
       </c>
@@ -19989,7 +20007,7 @@
         <v>48.772799999999997</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1099</v>
       </c>
@@ -20015,7 +20033,7 @@
         <v>433.87470000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1101</v>
       </c>
@@ -20041,7 +20059,7 @@
         <v>433.87470000000002</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1103</v>
       </c>
@@ -20067,7 +20085,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1105</v>
       </c>
@@ -20093,7 +20111,7 @@
         <v>591.41536000000008</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1107</v>
       </c>
@@ -20119,7 +20137,7 @@
         <v>92.80380000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1109</v>
       </c>
@@ -20148,7 +20166,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1112</v>
       </c>
@@ -20174,7 +20192,7 @@
         <v>4171.0905000000002</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1114</v>
       </c>
@@ -20200,7 +20218,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1116</v>
       </c>
@@ -20226,7 +20244,7 @@
         <v>540.22649999999999</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1118</v>
       </c>
@@ -20252,7 +20270,7 @@
         <v>540.22649999999999</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1120</v>
       </c>
@@ -20278,7 +20296,7 @@
         <v>2336.6009800000002</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1122</v>
       </c>
@@ -20286,7 +20304,7 @@
         <v>1123</v>
       </c>
       <c r="C529">
-        <v>22.53</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D529">
         <v>414.25</v>
@@ -20304,7 +20322,7 @@
         <v>467.68824999999998</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1124</v>
       </c>
@@ -20312,7 +20330,7 @@
         <v>1125</v>
       </c>
       <c r="C530">
-        <v>22.53</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D530">
         <v>30</v>
@@ -20330,7 +20348,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1126</v>
       </c>
@@ -20338,7 +20356,7 @@
         <v>1127</v>
       </c>
       <c r="C531">
-        <v>22.53</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D531">
         <v>192</v>
@@ -20356,7 +20374,7 @@
         <v>216.768</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1128</v>
       </c>
@@ -20364,7 +20382,7 @@
         <v>1129</v>
       </c>
       <c r="C532">
-        <v>22.53</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D532">
         <v>192</v>
@@ -20382,7 +20400,7 @@
         <v>216.768</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1130</v>
       </c>
@@ -20390,7 +20408,7 @@
         <v>1131</v>
       </c>
       <c r="C533">
-        <v>22.53</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D533">
         <v>438.5</v>
@@ -20408,7 +20426,7 @@
         <v>495.06650000000002</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1132</v>
       </c>
@@ -20437,7 +20455,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1135</v>
       </c>
@@ -20445,7 +20463,7 @@
         <v>1136</v>
       </c>
       <c r="C535">
-        <v>26.75</v>
+        <v>1</v>
       </c>
       <c r="D535">
         <v>362.3</v>
@@ -20463,7 +20481,7 @@
         <v>409.0367</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1137</v>
       </c>
@@ -20471,7 +20489,7 @@
         <v>1138</v>
       </c>
       <c r="C536">
-        <v>26.75</v>
+        <v>1</v>
       </c>
       <c r="D536">
         <v>250.5</v>
@@ -20489,7 +20507,7 @@
         <v>282.81450000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1139</v>
       </c>
@@ -20497,7 +20515,7 @@
         <v>1140</v>
       </c>
       <c r="C537">
-        <v>26.75</v>
+        <v>1</v>
       </c>
       <c r="D537">
         <v>998.5</v>
@@ -20515,7 +20533,7 @@
         <v>1127.3064999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1141</v>
       </c>
@@ -20523,7 +20541,7 @@
         <v>1142</v>
       </c>
       <c r="C538">
-        <v>26.75</v>
+        <v>1</v>
       </c>
       <c r="D538">
         <v>30</v>
@@ -20541,7 +20559,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1143</v>
       </c>
@@ -20549,7 +20567,7 @@
         <v>1144</v>
       </c>
       <c r="C539">
-        <v>26.75</v>
+        <v>1</v>
       </c>
       <c r="D539">
         <v>243.7</v>
@@ -20567,7 +20585,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1145</v>
       </c>
@@ -20575,7 +20593,7 @@
         <v>1146</v>
       </c>
       <c r="C540">
-        <v>26.75</v>
+        <v>1</v>
       </c>
       <c r="D540">
         <v>243.7</v>
@@ -20593,7 +20611,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1147</v>
       </c>
@@ -20619,7 +20637,7 @@
         <v>13899.457700000001</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1149</v>
       </c>
@@ -20645,7 +20663,7 @@
         <v>6600.134</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1151</v>
       </c>
@@ -20671,7 +20689,7 @@
         <v>215.92124999999999</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1153</v>
       </c>
@@ -20697,7 +20715,7 @@
         <v>777.65519999999992</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1155</v>
       </c>
@@ -20723,7 +20741,7 @@
         <v>777.65519999999992</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1157</v>
       </c>
@@ -20749,7 +20767,7 @@
         <v>24910.786629999999</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1159</v>
       </c>
@@ -20775,7 +20793,7 @@
         <v>1622.1472000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1161</v>
       </c>
@@ -20801,7 +20819,7 @@
         <v>4493.42</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1163</v>
       </c>
@@ -20827,7 +20845,7 @@
         <v>156.64875000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1165</v>
       </c>
@@ -20853,7 +20871,7 @@
         <v>1545.2623000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1167</v>
       </c>
@@ -20879,7 +20897,7 @@
         <v>1545.2623000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1169</v>
       </c>
@@ -20905,7 +20923,7 @@
         <v>6352.2846300000001</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1171</v>
       </c>
@@ -20934,7 +20952,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1174</v>
       </c>
@@ -20960,7 +20978,7 @@
         <v>134.57679999999999</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1176</v>
       </c>
@@ -20986,7 +21004,7 @@
         <v>592.72500000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1178</v>
       </c>
@@ -21012,7 +21030,7 @@
         <v>32.5152</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1180</v>
       </c>
@@ -21038,7 +21056,7 @@
         <v>257.63780000000003</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1182</v>
       </c>
@@ -21064,7 +21082,7 @@
         <v>257.63780000000003</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1184</v>
       </c>
@@ -21090,7 +21108,7 @@
         <v>408.92380000000003</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1186</v>
       </c>
@@ -21116,7 +21134,7 @@
         <v>12639.80982</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1188</v>
       </c>
@@ -21142,7 +21160,7 @@
         <v>1495.3605</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1190</v>
       </c>
@@ -21168,7 +21186,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1192</v>
       </c>
@@ -21194,7 +21212,7 @@
         <v>408.92380000000003</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1194</v>
       </c>
@@ -21220,7 +21238,7 @@
         <v>1898.7521999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1196</v>
       </c>
@@ -21246,7 +21264,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1198</v>
       </c>
@@ -21272,7 +21290,7 @@
         <v>444.03570000000002</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1200</v>
       </c>
@@ -21301,7 +21319,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1203</v>
       </c>
@@ -21327,7 +21345,7 @@
         <v>404.12554999999998</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1205</v>
       </c>
@@ -21353,7 +21371,7 @@
         <v>130.51240000000001</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1207</v>
       </c>
@@ -21379,7 +21397,7 @@
         <v>462.89</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1209</v>
       </c>
@@ -21405,7 +21423,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1211</v>
       </c>
@@ -21431,7 +21449,7 @@
         <v>240.81569999999999</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1213</v>
       </c>
@@ -21457,7 +21475,7 @@
         <v>240.81569999999999</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1215</v>
       </c>
@@ -21483,7 +21501,7 @@
         <v>532.04124999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>1217</v>
       </c>
@@ -21509,7 +21527,7 @@
         <v>188.20429999999999</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1219</v>
       </c>
@@ -21535,7 +21553,7 @@
         <v>1116.5809999999999</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1221</v>
       </c>
@@ -21564,7 +21582,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1224</v>
       </c>
@@ -21590,7 +21608,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>1226</v>
       </c>
@@ -21616,7 +21634,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1228</v>
       </c>
@@ -21642,7 +21660,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1230</v>
       </c>
@@ -21668,7 +21686,7 @@
         <v>576.74964999999997</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1232</v>
       </c>
@@ -21694,7 +21712,7 @@
         <v>572.40300000000002</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1234</v>
       </c>
@@ -21723,7 +21741,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1236</v>
       </c>
@@ -21749,7 +21767,7 @@
         <v>29.63625</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1238</v>
       </c>
@@ -21775,7 +21793,7 @@
         <v>289.024</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1240</v>
       </c>
@@ -21801,7 +21819,7 @@
         <v>289.024</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1242</v>
       </c>
@@ -21827,7 +21845,7 @@
         <v>7211.6455599999999</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1244</v>
       </c>
@@ -21853,7 +21871,7 @@
         <v>2599.1273500000002</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1246</v>
       </c>
@@ -21879,7 +21897,7 @@
         <v>354.50599999999997</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1248</v>
       </c>
@@ -21905,7 +21923,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1250</v>
       </c>
@@ -21931,7 +21949,7 @@
         <v>319.95859999999999</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1252</v>
       </c>
@@ -21957,7 +21975,7 @@
         <v>319.95859999999999</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1254</v>
       </c>
@@ -21965,7 +21983,7 @@
         <v>1255</v>
       </c>
       <c r="C593">
-        <v>63.16</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D593">
         <v>63.75</v>
@@ -21983,7 +22001,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1256</v>
       </c>
@@ -21991,7 +22009,7 @@
         <v>1257</v>
       </c>
       <c r="C594">
-        <v>63.16</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D594">
         <v>521.29999999999995</v>
@@ -22009,7 +22027,7 @@
         <v>588.54769999999996</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1258</v>
       </c>
@@ -22017,7 +22035,7 @@
         <v>1259</v>
       </c>
       <c r="C595">
-        <v>63.16</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D595">
         <v>521.29999999999995</v>
@@ -22035,7 +22053,7 @@
         <v>588.54769999999996</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1260</v>
       </c>
@@ -22064,7 +22082,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1263</v>
       </c>
@@ -22090,7 +22108,7 @@
         <v>387.13409999999999</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1265</v>
       </c>
@@ -22116,7 +22134,7 @@
         <v>318.7167</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1267</v>
       </c>
@@ -22142,7 +22160,7 @@
         <v>1313.027</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1269</v>
       </c>
@@ -22168,7 +22186,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>1271</v>
       </c>
@@ -22194,7 +22212,7 @@
         <v>364.66699999999997</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1273</v>
       </c>
@@ -22220,7 +22238,7 @@
         <v>364.66699999999997</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>1275</v>
       </c>
@@ -22249,7 +22267,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1278</v>
       </c>
@@ -22275,7 +22293,7 @@
         <v>175.84174999999999</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1280</v>
       </c>
@@ -22301,7 +22319,7 @@
         <v>247.251</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>1282</v>
       </c>
@@ -22327,7 +22345,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1284</v>
       </c>
@@ -22353,7 +22371,7 @@
         <v>268.36329999999998</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>1286</v>
       </c>
@@ -22379,7 +22397,7 @@
         <v>268.36329999999998</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1288</v>
       </c>
@@ -22408,7 +22426,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1291</v>
       </c>
@@ -22434,7 +22452,7 @@
         <v>680.78700000000003</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>1293</v>
       </c>
@@ -22460,7 +22478,7 @@
         <v>36.579599999999999</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>1295</v>
       </c>
@@ -22486,7 +22504,7 @@
         <v>502.29209999999989</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1297</v>
       </c>
@@ -22512,7 +22530,7 @@
         <v>502.29209999999989</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1299</v>
       </c>
@@ -22538,7 +22556,7 @@
         <v>399.4402</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>1301</v>
       </c>
@@ -22564,7 +22582,7 @@
         <v>554.33899999999994</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1303</v>
       </c>
@@ -22593,7 +22611,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1306</v>
       </c>
@@ -22619,7 +22637,7 @@
         <v>60.966000000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1308</v>
       </c>
@@ -22645,7 +22663,7 @@
         <v>746.83349999999996</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1310</v>
       </c>
@@ -22671,7 +22689,7 @@
         <v>746.83349999999996</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>1312</v>
       </c>
@@ -22697,7 +22715,7 @@
         <v>7773.0069399999993</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1314</v>
       </c>
@@ -22723,7 +22741,7 @@
         <v>56.901600000000002</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1316</v>
       </c>
@@ -22749,7 +22767,7 @@
         <v>536.50080000000003</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>1318</v>
       </c>
@@ -22775,7 +22793,7 @@
         <v>536.50080000000003</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1320</v>
       </c>
@@ -22804,7 +22822,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1322</v>
       </c>
@@ -22812,7 +22830,7 @@
         <v>1323</v>
       </c>
       <c r="C625">
-        <v>26.05</v>
+        <v>1</v>
       </c>
       <c r="D625">
         <v>958</v>
@@ -22830,7 +22848,7 @@
         <v>1081.5820000000001</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1324</v>
       </c>
@@ -22838,7 +22856,7 @@
         <v>1325</v>
       </c>
       <c r="C626">
-        <v>26.05</v>
+        <v>1</v>
       </c>
       <c r="D626">
         <v>32.4</v>
@@ -22856,7 +22874,7 @@
         <v>36.579599999999999</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1326</v>
       </c>
@@ -22864,7 +22882,7 @@
         <v>1327</v>
       </c>
       <c r="C627">
-        <v>26.05</v>
+        <v>1</v>
       </c>
       <c r="D627">
         <v>243.7</v>
@@ -22882,7 +22900,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>1328</v>
       </c>
@@ -22890,7 +22908,7 @@
         <v>1329</v>
       </c>
       <c r="C628">
-        <v>26.05</v>
+        <v>1</v>
       </c>
       <c r="D628">
         <v>243.7</v>
@@ -22908,7 +22926,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1330</v>
       </c>
@@ -22934,7 +22952,7 @@
         <v>265.20209999999997</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>1332</v>
       </c>
@@ -22960,7 +22978,7 @@
         <v>29.63625</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1334</v>
       </c>
@@ -22986,7 +23004,7 @@
         <v>598.37</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1336</v>
       </c>
@@ -23015,7 +23033,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>1339</v>
       </c>
@@ -23041,7 +23059,7 @@
         <v>412.98820000000001</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1341</v>
       </c>
@@ -23067,7 +23085,7 @@
         <v>412.98820000000001</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>1343</v>
       </c>
@@ -23096,7 +23114,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1346</v>
       </c>
@@ -23122,7 +23140,7 @@
         <v>580.58825000000002</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>1348</v>
       </c>
@@ -23148,7 +23166,7 @@
         <v>188.20429999999999</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>1350</v>
       </c>
@@ -23174,7 +23192,7 @@
         <v>225.8</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>1352</v>
       </c>
@@ -23200,7 +23218,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1354</v>
       </c>
@@ -23226,7 +23244,7 @@
         <v>399.21440000000001</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1356</v>
       </c>
@@ -23252,7 +23270,7 @@
         <v>399.21440000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1358</v>
       </c>
@@ -23278,7 +23296,7 @@
         <v>439.57614999999998</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1360</v>
       </c>
@@ -23304,7 +23322,7 @@
         <v>188.20429999999999</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1362</v>
       </c>
@@ -23330,7 +23348,7 @@
         <v>278.863</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1364</v>
       </c>
@@ -23359,7 +23377,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1367</v>
       </c>
@@ -23385,7 +23403,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1369</v>
       </c>
@@ -23411,7 +23429,7 @@
         <v>333.73239999999998</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1371</v>
       </c>
@@ -23437,7 +23455,7 @@
         <v>333.73239999999998</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1373</v>
       </c>
@@ -23466,7 +23484,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1376</v>
       </c>
@@ -23492,7 +23510,7 @@
         <v>1468.6032</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1378</v>
       </c>
@@ -23518,7 +23536,7 @@
         <v>606.04719999999998</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1380</v>
       </c>
@@ -23544,7 +23562,7 @@
         <v>1027.3900000000001</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1382</v>
       </c>
@@ -23570,7 +23588,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1384</v>
       </c>
@@ -23596,7 +23614,7 @@
         <v>550.38749999999993</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1386</v>
       </c>
@@ -23622,7 +23640,7 @@
         <v>550.38749999999993</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1388</v>
       </c>
@@ -23648,7 +23666,7 @@
         <v>4965.10491</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1390</v>
       </c>
@@ -23674,7 +23692,7 @@
         <v>925.78</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1392</v>
       </c>
@@ -23700,7 +23718,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1394</v>
       </c>
@@ -23726,7 +23744,7 @@
         <v>316.3458</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1396</v>
       </c>
@@ -23752,7 +23770,7 @@
         <v>316.3458</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1398</v>
       </c>
@@ -23778,7 +23796,7 @@
         <v>557.16150000000005</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1400</v>
       </c>
@@ -23804,7 +23822,7 @@
         <v>211.12299999999999</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1402</v>
       </c>
@@ -23833,7 +23851,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1405</v>
       </c>
@@ -23859,7 +23877,7 @@
         <v>25.4025</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1407</v>
       </c>
@@ -23885,7 +23903,7 @@
         <v>378.55369999999999</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1409</v>
       </c>
@@ -23911,7 +23929,7 @@
         <v>378.55369999999999</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1411</v>
       </c>
@@ -23940,7 +23958,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1414</v>
       </c>
@@ -23966,7 +23984,7 @@
         <v>12.70125</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1416</v>
       </c>
@@ -23992,7 +24010,7 @@
         <v>151.3989</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1418</v>
       </c>
@@ -24018,7 +24036,7 @@
         <v>151.3989</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1420</v>
       </c>
@@ -24044,7 +24062,7 @@
         <v>8500.6926000000003</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1422</v>
       </c>
@@ -24070,7 +24088,7 @@
         <v>4257.5154499999999</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1424</v>
       </c>
@@ -24096,7 +24114,7 @@
         <v>1517.376</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1426</v>
       </c>
@@ -24122,7 +24140,7 @@
         <v>84.674999999999997</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1428</v>
       </c>
@@ -24148,7 +24166,7 @@
         <v>1155.9830999999999</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1430</v>
       </c>
@@ -24174,7 +24192,7 @@
         <v>1155.9830999999999</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1432</v>
       </c>
@@ -24203,7 +24221,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1435</v>
       </c>
@@ -24229,7 +24247,7 @@
         <v>6167.7269999999999</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1437</v>
       </c>
@@ -24255,7 +24273,7 @@
         <v>279.42750000000001</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1439</v>
       </c>
@@ -24281,7 +24299,7 @@
         <v>3097.9760000000001</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1441</v>
       </c>
@@ -24307,7 +24325,7 @@
         <v>3097.9760000000001</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1443</v>
       </c>
@@ -24336,7 +24354,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1446</v>
       </c>
@@ -24362,7 +24380,7 @@
         <v>1400.91965</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1448</v>
       </c>
@@ -24388,7 +24406,7 @@
         <v>681.91599999999994</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1450</v>
       </c>
@@ -24414,7 +24432,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1452</v>
       </c>
@@ -24440,7 +24458,7 @@
         <v>658.77150000000006</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1454</v>
       </c>
@@ -24466,7 +24484,7 @@
         <v>658.77150000000006</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1456</v>
       </c>
@@ -24492,7 +24510,7 @@
         <v>1507.6666</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1458</v>
       </c>
@@ -24521,7 +24539,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1461</v>
       </c>
@@ -24547,7 +24565,7 @@
         <v>88.908749999999998</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1463</v>
       </c>
@@ -24573,7 +24591,7 @@
         <v>970.60130000000004</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1465</v>
       </c>
@@ -24599,7 +24617,7 @@
         <v>970.60130000000004</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1467</v>
       </c>
@@ -24625,7 +24643,7 @@
         <v>1387.5409999999999</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1469</v>
       </c>
@@ -24633,7 +24651,7 @@
         <v>1470</v>
       </c>
       <c r="C694">
-        <v>70.02</v>
+        <v>2</v>
       </c>
       <c r="D694">
         <v>279</v>
@@ -24651,7 +24669,7 @@
         <v>314.99099999999999</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1471</v>
       </c>
@@ -24659,7 +24677,7 @@
         <v>1472</v>
       </c>
       <c r="C695">
-        <v>70.02</v>
+        <v>2</v>
       </c>
       <c r="D695">
         <v>39.6</v>
@@ -24677,7 +24695,7 @@
         <v>44.708399999999997</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1473</v>
       </c>
@@ -24685,7 +24703,7 @@
         <v>1474</v>
       </c>
       <c r="C696">
-        <v>70.02</v>
+        <v>2</v>
       </c>
       <c r="D696">
         <v>682.9</v>
@@ -24703,7 +24721,7 @@
         <v>770.99409999999989</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1475</v>
       </c>
@@ -24711,7 +24729,7 @@
         <v>1476</v>
       </c>
       <c r="C697">
-        <v>70.02</v>
+        <v>2</v>
       </c>
       <c r="D697">
         <v>682.9</v>
@@ -24729,7 +24747,7 @@
         <v>770.99409999999989</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1477</v>
       </c>
@@ -24758,7 +24776,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1480</v>
       </c>
@@ -24787,7 +24805,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1483</v>
       </c>
@@ -24813,7 +24831,7 @@
         <v>1449.636</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1485</v>
       </c>
@@ -24839,7 +24857,7 @@
         <v>73.159199999999998</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1487</v>
       </c>
@@ -24865,7 +24883,7 @@
         <v>733.17259999999999</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1489</v>
       </c>
@@ -24891,7 +24909,7 @@
         <v>733.17259999999999</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1491</v>
       </c>
@@ -24920,7 +24938,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1494</v>
       </c>
@@ -24946,7 +24964,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1496</v>
       </c>
@@ -24972,7 +24990,7 @@
         <v>82.981499999999997</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1498</v>
       </c>
@@ -24998,7 +25016,7 @@
         <v>729.67269999999996</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1500</v>
       </c>
@@ -25024,7 +25042,7 @@
         <v>812.65419999999995</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1502</v>
       </c>
@@ -25050,7 +25068,7 @@
         <v>14157.739030000001</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1504</v>
       </c>
@@ -25076,7 +25094,7 @@
         <v>97.376249999999999</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1506</v>
       </c>
@@ -25102,7 +25120,7 @@
         <v>1032.4704999999999</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1508</v>
       </c>
@@ -25128,7 +25146,7 @@
         <v>1032.4704999999999</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1510</v>
       </c>
@@ -25154,7 +25172,7 @@
         <v>819.654</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1512</v>
       </c>
@@ -25180,7 +25198,7 @@
         <v>97.376249999999999</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1514</v>
       </c>
@@ -25206,7 +25224,7 @@
         <v>836.36319999999989</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1516</v>
       </c>
@@ -25232,7 +25250,7 @@
         <v>836.36319999999989</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1518</v>
       </c>
@@ -25258,7 +25276,7 @@
         <v>14399.299870000001</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1520</v>
       </c>
@@ -25284,7 +25302,7 @@
         <v>2829.2739999999999</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1522</v>
       </c>
@@ -25310,7 +25328,7 @@
         <v>105.84375</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1524</v>
       </c>
@@ -25336,7 +25354,7 @@
         <v>540.00070000000005</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1526</v>
       </c>
@@ -25362,7 +25380,7 @@
         <v>540.00070000000005</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1528</v>
       </c>
@@ -25391,7 +25409,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1531</v>
       </c>
@@ -25417,7 +25435,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1533</v>
       </c>
@@ -25443,7 +25461,7 @@
         <v>1683.5873799999999</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1535</v>
       </c>
@@ -25469,7 +25487,7 @@
         <v>16.2576</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1537</v>
       </c>
@@ -25495,7 +25513,7 @@
         <v>100.8197</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1539</v>
       </c>
@@ -25521,7 +25539,7 @@
         <v>100.8197</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1541</v>
       </c>
@@ -25547,7 +25565,7 @@
         <v>105.84375</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1543</v>
       </c>
@@ -25573,7 +25591,7 @@
         <v>9767.0693200000005</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1545</v>
       </c>
@@ -25599,7 +25617,7 @@
         <v>1470.46605</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1547</v>
       </c>
@@ -25625,7 +25643,7 @@
         <v>388.82760000000002</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1549</v>
       </c>
@@ -25651,7 +25669,7 @@
         <v>388.82760000000002</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1551</v>
       </c>
@@ -25677,7 +25695,7 @@
         <v>6907.6961800000008</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1553</v>
       </c>
@@ -25703,7 +25721,7 @@
         <v>844.49199999999996</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1555</v>
       </c>
@@ -25729,7 +25747,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1557</v>
       </c>
@@ -25755,7 +25773,7 @@
         <v>446.97109999999998</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1559</v>
       </c>
@@ -25781,7 +25799,7 @@
         <v>444.93889999999999</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1561</v>
       </c>
@@ -25807,7 +25825,7 @@
         <v>15762.21738</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1563</v>
       </c>
@@ -25833,7 +25851,7 @@
         <v>3970.1284999999998</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1565</v>
       </c>
@@ -25859,7 +25877,7 @@
         <v>139.71375</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1567</v>
       </c>
@@ -25885,7 +25903,7 @@
         <v>667.91640000000007</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1569</v>
       </c>
@@ -25911,7 +25929,7 @@
         <v>667.91640000000007</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1571</v>
       </c>
@@ -25937,7 +25955,7 @@
         <v>11351.32728</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1573</v>
       </c>
@@ -25963,7 +25981,7 @@
         <v>1485.1994999999999</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1575</v>
       </c>
@@ -25989,7 +26007,7 @@
         <v>2688.7134999999998</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1577</v>
       </c>
@@ -26015,7 +26033,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1579</v>
       </c>
@@ -26041,7 +26059,7 @@
         <v>536.83949999999993</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1581</v>
       </c>
@@ -26067,7 +26085,7 @@
         <v>536.83949999999993</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1583</v>
       </c>
@@ -26093,7 +26111,7 @@
         <v>21865.82847</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1585</v>
       </c>
@@ -26119,7 +26137,7 @@
         <v>4125.366</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1587</v>
       </c>
@@ -26145,7 +26163,7 @@
         <v>127.0125</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1589</v>
       </c>
@@ -26171,7 +26189,7 @@
         <v>447.42270000000002</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1591</v>
       </c>
@@ -26197,7 +26215,7 @@
         <v>447.42270000000002</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1593</v>
       </c>
@@ -26223,7 +26241,7 @@
         <v>3139.1280499999998</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1595</v>
       </c>
@@ -26249,7 +26267,7 @@
         <v>767.8329</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1597</v>
       </c>
@@ -26275,7 +26293,7 @@
         <v>205.8167</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1599</v>
       </c>
@@ -26301,7 +26319,7 @@
         <v>826.428</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1601</v>
       </c>
@@ -26330,7 +26348,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1604</v>
       </c>
@@ -26356,7 +26374,7 @@
         <v>25.4025</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1606</v>
       </c>
@@ -26382,7 +26400,7 @@
         <v>247.92840000000001</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1608</v>
       </c>
@@ -26408,7 +26426,7 @@
         <v>247.92840000000001</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1610</v>
       </c>
@@ -26437,7 +26455,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1613</v>
       </c>
@@ -26463,7 +26481,7 @@
         <v>900.6033000000001</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1615</v>
       </c>
@@ -26489,7 +26507,7 @@
         <v>223.42910000000001</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1617</v>
       </c>
@@ -26515,7 +26533,7 @@
         <v>1252.0609999999999</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1619</v>
       </c>
@@ -26541,7 +26559,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1621</v>
       </c>
@@ -26567,7 +26585,7 @@
         <v>353.82859999999988</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1623</v>
       </c>
@@ -26593,7 +26611,7 @@
         <v>353.82859999999988</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1625</v>
       </c>
@@ -26619,7 +26637,7 @@
         <v>1325.84115</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1627</v>
       </c>
@@ -26645,7 +26663,7 @@
         <v>223.42910000000001</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1629</v>
       </c>
@@ -26671,7 +26689,7 @@
         <v>1775.3525</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1631</v>
       </c>
@@ -26700,7 +26718,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1634</v>
       </c>
@@ -26726,7 +26744,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1636</v>
       </c>
@@ -26752,7 +26770,7 @@
         <v>417.39129999999989</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1638</v>
       </c>
@@ -26778,7 +26796,7 @@
         <v>417.39129999999989</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1640</v>
       </c>
@@ -26804,7 +26822,7 @@
         <v>13531.27951</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1642</v>
       </c>
@@ -26830,7 +26848,7 @@
         <v>2374.2869999999998</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1644</v>
       </c>
@@ -26856,7 +26874,7 @@
         <v>97.376249999999999</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1646</v>
       </c>
@@ -26882,7 +26900,7 @@
         <v>718.8343000000001</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1648</v>
       </c>
@@ -26908,7 +26926,7 @@
         <v>718.8343000000001</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1650</v>
       </c>
@@ -26937,7 +26955,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1653</v>
       </c>
@@ -26963,7 +26981,7 @@
         <v>503.64690000000002</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1655</v>
       </c>
@@ -26989,7 +27007,7 @@
         <v>98.843950000000007</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1657</v>
       </c>
@@ -27015,7 +27033,7 @@
         <v>656.51350000000002</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1659</v>
       </c>
@@ -27041,7 +27059,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1661</v>
       </c>
@@ -27067,7 +27085,7 @@
         <v>175.1079</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1663</v>
       </c>
@@ -27093,7 +27111,7 @@
         <v>175.44659999999999</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1665</v>
       </c>
@@ -27122,7 +27140,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1668</v>
       </c>
@@ -27148,7 +27166,7 @@
         <v>625.52244999999994</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1670</v>
       </c>
@@ -27174,7 +27192,7 @@
         <v>335.65170000000001</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1672</v>
       </c>
@@ -27200,7 +27218,7 @@
         <v>913.3610000000001</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1674</v>
       </c>
@@ -27226,7 +27244,7 @@
         <v>25.4025</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>1676</v>
       </c>
@@ -27252,7 +27270,7 @@
         <v>196.22020000000001</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>1678</v>
       </c>
@@ -27278,7 +27296,7 @@
         <v>196.22020000000001</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1680</v>
       </c>
@@ -27307,7 +27325,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>1683</v>
       </c>
@@ -27333,7 +27351,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1685</v>
       </c>
@@ -27359,7 +27377,7 @@
         <v>117.07729999999999</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1687</v>
       </c>
@@ -27385,7 +27403,7 @@
         <v>117.07729999999999</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1689</v>
       </c>
@@ -27414,7 +27432,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>1692</v>
       </c>
@@ -27422,7 +27440,7 @@
         <v>1693</v>
       </c>
       <c r="C800">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D800">
         <v>548.35</v>
@@ -27440,7 +27458,7 @@
         <v>619.08714999999995</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>1694</v>
       </c>
@@ -27448,7 +27466,7 @@
         <v>1695</v>
       </c>
       <c r="C801">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D801">
         <v>654</v>
@@ -27466,7 +27484,7 @@
         <v>738.36599999999999</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1696</v>
       </c>
@@ -27474,7 +27492,7 @@
         <v>1697</v>
       </c>
       <c r="C802">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D802">
         <v>30</v>
@@ -27492,7 +27510,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1698</v>
       </c>
@@ -27500,7 +27518,7 @@
         <v>1699</v>
       </c>
       <c r="C803">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D803">
         <v>246.8</v>
@@ -27518,7 +27536,7 @@
         <v>278.63720000000001</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>1700</v>
       </c>
@@ -27526,7 +27544,7 @@
         <v>1701</v>
       </c>
       <c r="C804">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D804">
         <v>246.8</v>
@@ -27544,7 +27562,7 @@
         <v>278.63720000000001</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>1702</v>
       </c>
@@ -27573,7 +27591,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>1705</v>
       </c>
@@ -27599,7 +27617,7 @@
         <v>55.095199999999998</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>1707</v>
       </c>
@@ -27625,7 +27643,7 @@
         <v>531.75900000000001</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1709</v>
       </c>
@@ -27651,7 +27669,7 @@
         <v>16.934999999999999</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>1711</v>
       </c>
@@ -27677,7 +27695,7 @@
         <v>55.095199999999998</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>1713</v>
       </c>
@@ -27703,7 +27721,7 @@
         <v>608.53100000000006</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1715</v>
       </c>
@@ -27729,7 +27747,7 @@
         <v>3729.5385999999999</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>1717</v>
       </c>
@@ -27755,7 +27773,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>1719</v>
       </c>
@@ -27781,7 +27799,7 @@
         <v>206.26830000000001</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>1721</v>
       </c>
@@ -27807,7 +27825,7 @@
         <v>206.26830000000001</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>1723</v>
       </c>
@@ -27830,7 +27848,7 @@
         <v>628.55946000000006</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>1725</v>
       </c>
@@ -27838,7 +27856,7 @@
         <v>1726</v>
       </c>
       <c r="C816">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D816">
         <v>0</v>
@@ -27856,7 +27874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>1727</v>
       </c>
@@ -27879,7 +27897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>1729</v>
       </c>
@@ -27905,7 +27923,7 @@
         <v>4717.8087500000001</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>1731</v>
       </c>
@@ -27931,7 +27949,7 @@
         <v>11259.25733</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>1733</v>
       </c>
@@ -27957,7 +27975,7 @@
         <v>9620.9315599999991</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>1735</v>
       </c>
@@ -27983,7 +28001,7 @@
         <v>14104.43894</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>1737</v>
       </c>
@@ -28009,7 +28027,7 @@
         <v>5209.2060000000001</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>1739</v>
       </c>
@@ -28017,7 +28035,7 @@
         <v>1740</v>
       </c>
       <c r="C823">
-        <v>110.58</v>
+        <v>110</v>
       </c>
       <c r="D823">
         <v>6457.45</v>
@@ -28035,7 +28053,7 @@
         <v>7290.4610499999999</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>1741</v>
       </c>
@@ -28061,7 +28079,7 @@
         <v>1833.0444</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>1743</v>
       </c>
@@ -28087,7 +28105,7 @@
         <v>2735.0589500000001</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>1745</v>
       </c>
@@ -28113,7 +28131,7 @@
         <v>0.5645</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>1747</v>
       </c>
@@ -28136,7 +28154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>1749</v>
       </c>
@@ -28159,7 +28177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>1751</v>
       </c>
@@ -28182,7 +28200,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>1753</v>
       </c>
@@ -28205,7 +28223,7 @@
         <v>28.225000000000001</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>1755</v>
       </c>
@@ -28231,7 +28249,7 @@
         <v>319.71021999999999</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>1757</v>
       </c>
@@ -28257,7 +28275,7 @@
         <v>112.87742</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>1759</v>
       </c>
@@ -28283,7 +28301,7 @@
         <v>151.72631000000001</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>1761</v>
       </c>
@@ -28309,7 +28327,7 @@
         <v>237.38354000000001</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>1763</v>
       </c>
@@ -28332,7 +28350,7 @@
         <v>152.69725</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>1765</v>
       </c>
@@ -28358,7 +28376,7 @@
         <v>148.66672</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>1767</v>
       </c>
@@ -28384,7 +28402,7 @@
         <v>174.81435999999999</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>1769</v>
       </c>
@@ -28410,7 +28428,7 @@
         <v>0.7903</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>1771</v>
       </c>
@@ -28436,7 +28454,7 @@
         <v>0.5645</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>1773</v>
       </c>
@@ -28462,13 +28480,16 @@
         <v>0.95964999999999989</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>1775</v>
       </c>
       <c r="B841" t="s">
         <v>1776</v>
       </c>
+      <c r="C841">
+        <v>1</v>
+      </c>
       <c r="D841">
         <v>0</v>
       </c>
@@ -28485,7 +28506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>1777</v>
       </c>
@@ -28508,7 +28529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>1779</v>
       </c>
@@ -28531,7 +28552,7 @@
         <v>0.67739999999999989</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>1781</v>
       </c>
@@ -28554,7 +28575,7 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>1783</v>
       </c>
@@ -28577,13 +28598,16 @@
         <v>0.9032</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>1785</v>
       </c>
       <c r="B846" t="s">
         <v>1786</v>
       </c>
+      <c r="C846">
+        <v>1</v>
+      </c>
       <c r="D846">
         <v>0</v>
       </c>
@@ -28600,7 +28624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>1787</v>
       </c>
@@ -28623,7 +28647,7 @@
         <v>5.645E-2</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>1789</v>
       </c>
@@ -28646,7 +28670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>1791</v>
       </c>
@@ -28672,7 +28696,7 @@
         <v>27.547599999999999</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>1793</v>
       </c>
@@ -28698,7 +28722,7 @@
         <v>15.52375</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>1795</v>
       </c>
@@ -28724,7 +28748,7 @@
         <v>25.1767</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>1797</v>
       </c>
@@ -28750,7 +28774,7 @@
         <v>21.620349999999991</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>1799</v>
       </c>
@@ -28776,7 +28800,7 @@
         <v>20.660699999999999</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>1801</v>
       </c>
@@ -28802,7 +28826,7 @@
         <v>27.547599999999999</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>1803</v>
       </c>
@@ -28828,7 +28852,7 @@
         <v>27.547599999999999</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>1805</v>
       </c>
@@ -28854,7 +28878,7 @@
         <v>55.26455</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>1807</v>
       </c>
@@ -28880,7 +28904,7 @@
         <v>55.26455</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>1809</v>
       </c>
@@ -28903,7 +28927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>1811</v>
       </c>
@@ -28929,7 +28953,7 @@
         <v>55.26455</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>1813</v>
       </c>
@@ -28955,7 +28979,7 @@
         <v>55.26455</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>1815</v>
       </c>
@@ -28978,7 +29002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>1817</v>
       </c>
@@ -29001,7 +29025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>1819</v>
       </c>
@@ -29027,7 +29051,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>1821</v>
       </c>
@@ -29053,7 +29077,7 @@
         <v>27.547599999999999</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>1823</v>
       </c>
@@ -29079,7 +29103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>1825</v>
       </c>
@@ -29087,7 +29111,7 @@
         <v>1826</v>
       </c>
       <c r="C866">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D866">
         <v>45</v>
@@ -29105,7 +29129,7 @@
         <v>50.805</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>1827</v>
       </c>
@@ -29113,7 +29137,7 @@
         <v>1828</v>
       </c>
       <c r="C867">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D867">
         <v>31.45</v>
@@ -29131,7 +29155,7 @@
         <v>35.50705</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>1829</v>
       </c>
@@ -29139,7 +29163,7 @@
         <v>1830</v>
       </c>
       <c r="C868">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D868">
         <v>45</v>
@@ -29157,7 +29181,7 @@
         <v>50.805</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>1831</v>
       </c>
@@ -29183,7 +29207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>1833</v>
       </c>
@@ -29209,7 +29233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>1835</v>
       </c>
@@ -29235,7 +29259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>1837</v>
       </c>
@@ -29258,7 +29282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>1839</v>
       </c>
@@ -29281,7 +29305,7 @@
         <v>46.063199999999988</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>1841</v>
       </c>
@@ -29304,7 +29328,7 @@
         <v>44.934199999999997</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>1843</v>
       </c>
@@ -29327,7 +29351,7 @@
         <v>61.248249999999999</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>1845</v>
       </c>
@@ -29350,7 +29374,7 @@
         <v>7212.9777800000002</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>1847</v>
       </c>
@@ -29373,7 +29397,7 @@
         <v>24.047699999999999</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>1849</v>
       </c>
@@ -29396,7 +29420,7 @@
         <v>16.934999999999999</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>1851</v>
       </c>
@@ -29419,7 +29443,7 @@
         <v>17.273700000000002</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>1853</v>
       </c>
@@ -29442,7 +29466,7 @@
         <v>19.362349999999999</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>1855</v>
       </c>
@@ -29468,7 +29492,7 @@
         <v>26.587949999999999</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>1857</v>
       </c>
@@ -29494,7 +29518,7 @@
         <v>26.587949999999999</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>1859</v>
       </c>
@@ -29520,7 +29544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>1861</v>
       </c>
@@ -29543,7 +29567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>1863</v>
       </c>
@@ -29566,7 +29590,7 @@
         <v>0.1129</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>1865</v>
       </c>
@@ -29589,7 +29613,7 @@
         <v>0.1129</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>1867</v>
       </c>
@@ -29612,7 +29636,7 @@
         <v>0.28225</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>1869</v>
       </c>
@@ -29635,7 +29659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>1871</v>
       </c>
@@ -29661,7 +29685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>1873</v>
       </c>
@@ -29687,13 +29711,16 @@
         <v>1.4677</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>1875</v>
       </c>
       <c r="B891" t="s">
         <v>1876</v>
       </c>
+      <c r="C891">
+        <v>2</v>
+      </c>
       <c r="D891">
         <v>0</v>
       </c>
@@ -29710,7 +29737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>1877</v>
       </c>
@@ -29736,7 +29763,7 @@
         <v>2.0886499999999999</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>1879</v>
       </c>
@@ -29762,13 +29789,16 @@
         <v>2.4838</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>1881</v>
       </c>
       <c r="B894" t="s">
         <v>1882</v>
       </c>
+      <c r="C894">
+        <v>2</v>
+      </c>
       <c r="D894">
         <v>0</v>
       </c>
@@ -29785,7 +29815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>1883</v>
       </c>
@@ -29811,7 +29841,7 @@
         <v>2.258</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>1885</v>
       </c>
@@ -29837,7 +29867,7 @@
         <v>2.8789500000000001</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>1887</v>
       </c>
@@ -29863,7 +29893,7 @@
         <v>4.516</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>1889</v>
       </c>
@@ -29889,13 +29919,16 @@
         <v>3.7629570000000001</v>
       </c>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>1891</v>
       </c>
       <c r="B899" t="s">
         <v>1892</v>
       </c>
+      <c r="C899">
+        <v>274</v>
+      </c>
       <c r="D899">
         <v>5.28</v>
       </c>
@@ -29912,7 +29945,7 @@
         <v>5.9611200000000002</v>
       </c>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>1893</v>
       </c>
@@ -29935,13 +29968,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>1895</v>
       </c>
       <c r="B901" t="s">
         <v>1896</v>
       </c>
+      <c r="C901">
+        <v>2761030100</v>
+      </c>
       <c r="D901">
         <v>3.2410000000000001</v>
       </c>
@@ -29958,7 +29994,7 @@
         <v>3.6590889999999998</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>1897</v>
       </c>
@@ -29981,7 +30017,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>1899</v>
       </c>
@@ -30004,7 +30040,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>1901</v>
       </c>
@@ -30027,7 +30063,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>1903</v>
       </c>
@@ -30050,7 +30086,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>1905</v>
       </c>
@@ -30073,7 +30109,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>1907</v>
       </c>
@@ -30096,7 +30132,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>1909</v>
       </c>
@@ -30119,7 +30155,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>1911</v>
       </c>
@@ -30142,7 +30178,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>1913</v>
       </c>
@@ -30165,7 +30201,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>1915</v>
       </c>
@@ -30188,7 +30224,7 @@
         <v>4.2337499999999997</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>1917</v>
       </c>
@@ -30211,7 +30247,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>1919</v>
       </c>
@@ -30234,7 +30270,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>1921</v>
       </c>
@@ -30257,7 +30293,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>1923</v>
       </c>
@@ -30280,7 +30316,7 @@
         <v>3.0482999999999998</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>1925</v>
       </c>
@@ -30303,7 +30339,7 @@
         <v>5.6449999999999996</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>1927</v>
       </c>
@@ -30326,7 +30362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>1929</v>
       </c>
@@ -30349,7 +30385,7 @@
         <v>6.774</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>1931</v>
       </c>
@@ -30372,7 +30408,7 @@
         <v>6.774</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>1933</v>
       </c>
@@ -30380,7 +30416,7 @@
         <v>1934</v>
       </c>
       <c r="C920">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D920">
         <v>3</v>
@@ -30398,7 +30434,7 @@
         <v>3.387</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>1935</v>
       </c>
@@ -30406,7 +30442,7 @@
         <v>1936</v>
       </c>
       <c r="C921">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D921">
         <v>7.45</v>
@@ -30424,7 +30460,7 @@
         <v>8.4110499999999995</v>
       </c>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>1937</v>
       </c>
@@ -30432,7 +30468,7 @@
         <v>1938</v>
       </c>
       <c r="C922">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D922">
         <v>4.9000000000000004</v>
@@ -30450,7 +30486,7 @@
         <v>5.5321000000000007</v>
       </c>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>1939</v>
       </c>
@@ -30458,7 +30494,7 @@
         <v>1940</v>
       </c>
       <c r="C923">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D923">
         <v>7.3</v>
@@ -30476,7 +30512,7 @@
         <v>8.2416999999999998</v>
       </c>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>1941</v>
       </c>
@@ -30502,7 +30538,7 @@
         <v>9.032</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>1943</v>
       </c>
@@ -30528,7 +30564,7 @@
         <v>5.475649999999999</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>1945</v>
       </c>
@@ -30554,7 +30590,7 @@
         <v>8.3545999999999996</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>1947</v>
       </c>
@@ -30577,7 +30613,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>1949</v>
       </c>
@@ -30600,7 +30636,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>1951</v>
       </c>
@@ -30623,7 +30659,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>1953</v>
       </c>
@@ -30646,7 +30682,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>1955</v>
       </c>
@@ -30669,7 +30705,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>1957</v>
       </c>
@@ -30692,7 +30728,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>1959</v>
       </c>
@@ -30715,7 +30751,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>1961</v>
       </c>
@@ -30741,7 +30777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>1963</v>
       </c>
@@ -30767,7 +30803,7 @@
         <v>37.302160000000001</v>
       </c>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>1965</v>
       </c>
@@ -30793,7 +30829,7 @@
         <v>62.094999999999999</v>
       </c>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>1967</v>
       </c>
@@ -30819,7 +30855,7 @@
         <v>60.288600000000002</v>
       </c>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>1969</v>
       </c>
@@ -30845,7 +30881,7 @@
         <v>89.360350000000011</v>
       </c>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>1971</v>
       </c>
@@ -30871,7 +30907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>1973</v>
       </c>
@@ -30897,7 +30933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>1975</v>
       </c>
@@ -30923,7 +30959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>1977</v>
       </c>
@@ -30949,7 +30985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>1979</v>
       </c>
@@ -30975,7 +31011,7 @@
         <v>38.386000000000003</v>
       </c>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>1981</v>
       </c>
@@ -31001,7 +31037,7 @@
         <v>47.700249999999997</v>
       </c>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>1983</v>
       </c>
@@ -31027,7 +31063,7 @@
         <v>36.918300000000002</v>
       </c>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>1985</v>
       </c>
@@ -31053,7 +31089,7 @@
         <v>49.450200000000002</v>
       </c>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>1987</v>
       </c>
@@ -31076,7 +31112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>1989</v>
       </c>
@@ -31102,7 +31138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>1991</v>
       </c>
